--- a/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
+++ b/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\WUbPPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\elec\WUbPPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_A931E55A577BEB621EED66B870917660F1385FC7" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="14070" yWindow="1485" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,10 +21,16 @@
     <sheet name="WUbPPT-withdrawals" sheetId="6" r:id="rId6"/>
     <sheet name="WUbPPT-consumption" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -299,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -654,22 +661,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -677,127 +686,127 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>10^12</f>
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>277777777.77777702</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -805,13 +814,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -891,7 +900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -971,7 +980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2411,7 +2420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2571,7 +2580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2651,7 +2660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2825,15 +2834,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" customWidth="1"/>
-    <col min="3" max="3" width="12.73046875" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
-    <col min="5" max="5" width="29.265625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -2919,7 +2928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3091,7 +3100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3263,7 +3272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3435,7 +3444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3521,7 +3530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +3616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3693,7 +3702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3779,7 +3788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3865,7 +3874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4123,7 +4132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4223,15 +4232,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" customWidth="1"/>
-    <col min="5" max="5" width="27.73046875" customWidth="1"/>
-    <col min="6" max="6" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -4317,7 +4326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4489,7 +4498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +4584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4661,7 +4670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4747,7 +4756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4833,7 +4842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4919,7 +4928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5005,7 +5014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5091,7 +5100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5177,7 +5186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -5263,7 +5272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5349,7 +5358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -5521,7 +5530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -5607,7 +5616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -5700,24 +5709,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
-    <col min="5" max="5" width="29.265625" customWidth="1"/>
-    <col min="6" max="8" width="28.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="8" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -5743,7 +5752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5776,7 +5785,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5809,7 +5818,7 @@
         <v>971.73432153190504</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5842,7 +5851,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5875,7 +5884,7 @@
         <v>1960.1218806510001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5908,7 +5917,7 @@
         <v>620.64013917559782</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5941,7 +5950,7 @@
         <v>745.03641899418494</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5974,7 +5983,7 @@
         <v>4930.3337614825323</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -6003,7 +6012,7 @@
         <v>16999.982182329317</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6036,7 +6045,7 @@
         <v>2226.6884419345611</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -6069,7 +6078,7 @@
         <v>1684.774202794702</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -6102,7 +6111,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -6135,7 +6144,7 @@
         <v>1183.8566612430841</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6168,7 +6177,7 @@
         <v>2103.5281074696754</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -6201,7 +6210,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -6234,7 +6243,7 @@
         <v>20.000187272534593</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -6273,7 +6282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6283,18 +6292,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.265625" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -6303,7 +6312,7 @@
         <v>54577.83755331373</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -6312,7 +6321,7 @@
         <v>4159.9245358989992</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6321,7 +6330,7 @@
         <v>63249.562164099065</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6330,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -6338,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -6347,7 +6356,7 @@
         <v>20.000187272534593</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -6356,7 +6365,7 @@
         <v>2103.5281074696754</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -6365,7 +6374,7 @@
         <v>13890.685457654999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -6374,7 +6383,7 @@
         <v>4930.3337614825323</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -6383,7 +6392,7 @@
         <v>23313.172724314474</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -6392,7 +6401,7 @@
         <v>30331.387156235895</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -6401,7 +6410,7 @@
         <v>54577.83755331373</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -6409,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -6418,7 +6427,7 @@
         <v>23313.172724314474</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -6427,7 +6436,7 @@
         <v>23313.172724314474</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -6442,7 +6451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6452,18 +6461,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.265625" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -6472,7 +6481,7 @@
         <v>1960.1218806510001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -6481,7 +6490,7 @@
         <v>620.64013917559782</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6490,7 +6499,7 @@
         <v>1684.774202794702</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6499,7 +6508,7 @@
         <v>16999.982182329317</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -6507,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -6516,7 +6525,7 @@
         <v>20.000187272534593</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -6525,7 +6534,7 @@
         <v>2103.5281074696754</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -6534,7 +6543,7 @@
         <v>971.73432153190504</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -6543,7 +6552,7 @@
         <v>4930.3337614825323</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -6552,7 +6561,7 @@
         <v>1183.8566612430841</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -6561,7 +6570,7 @@
         <v>745.03641899418494</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -6570,7 +6579,7 @@
         <v>1960.1218806510001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -6578,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -6587,7 +6596,7 @@
         <v>1183.8566612430841</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -6596,7 +6605,7 @@
         <v>1183.8566612430841</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -6611,6 +6620,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6844,32 +6871,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795B0C68-EAB3-4489-A198-BE32105CEDCF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E55D79-6DF2-47A2-8498-A4C8B4D502BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2FBD618-4C1F-4AB5-857C-D778E73BAFDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2FBD618-4C1F-4AB5-857C-D778E73BAFDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E55D79-6DF2-47A2-8498-A4C8B4D502BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795B0C68-EAB3-4489-A198-BE32105CEDCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>